--- a/biology/Botanique/Solanum_crispum/Solanum_crispum.xlsx
+++ b/biology/Botanique/Solanum_crispum/Solanum_crispum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum crispum est une espèce de plantes herbacées dicotylédones de la famille des Solanaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de  Solanum crispum est limitée au centre du Chili, de Quillota jusqu'à l'île de Chiloé, à des altitudes variant de 10 à 2500 m. On en trouve également des stations dispersées en Argentine le long de la frontière chilienne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de  Solanum crispum est limitée au centre du Chili, de Quillota jusqu'à l'île de Chiloé, à des altitudes variant de 10 à 2500 m. On en trouve également des stations dispersées en Argentine le long de la frontière chilienne.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (14 décembre 2014)[3] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (14 décembre 2014) :
 Solanum angustifolium var. brevifolium Dunal ;
 Solanum berteroanum (J.Rémy) Phil. ;
 Solanum concavum Lindl. ;
@@ -572,11 +591,7 @@
 Witheringia crispa (Ruiz &amp; Pav.) J.Rémy ;
 Witheringia gayana J.Remy ;
 Witheringia tomatillo J.Remy.
-Liste des variétés
-Selon Tropicos                                           (14 décembre 2014)[4] (Attention liste brute contenant possiblement des synonymes) :
-variété Solanum crispum var. crispum
-variété Solanum crispum var. elaeagnifolium Dunal
-variété Solanum crispum var. ligustrinum (Lodd.) Dunal</t>
+</t>
         </is>
       </c>
     </row>
@@ -601,13 +616,54 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (14 décembre 2014) (Attention liste brute contenant possiblement des synonymes) :
+variété Solanum crispum var. crispum
+variété Solanum crispum var. elaeagnifolium Dunal
+variété Solanum crispum var. ligustrinum (Lodd.) Dunal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Solanum_crispum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum_crispum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum crispum est cultivée dans les jardins comme plante grimpante ornementale au Royaume-Uni.
-Le cultivar florifère 'Glasnevin' a reçu le prix « Award of Garden Merit » (prix du mérite en jardinage) de la Société royale d'horticulture[5].
+Le cultivar florifère 'Glasnevin' a reçu le prix « Award of Garden Merit » (prix du mérite en jardinage) de la Société royale d'horticulture.
 </t>
         </is>
       </c>
